--- a/medicine/Mort/Tombeau_de_Dante/Tombeau_de_Dante.xlsx
+++ b/medicine/Mort/Tombeau_de_Dante/Tombeau_de_Dante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tombeau de Dante est un monument funéraire qui contient les ossements de Dante Alighieri, érigé près du couvent franciscain, au bout de la via Dante Alighieri, au centre historique de Ravenne, ville où il a séjourné à la fin de sa vie et où il est mort en 1321.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tombeau a été construit en 1780-1781 à l'initiative du cardinal légat Luigi Valenti Gonzaga, d'après les plans de l'architecte Camillo Morigia (it). L'édifice actuel a été bâti au-dessus d'une tombe préexistante datant du XVe siècle érigée à l'initiative du podestat vénitien de Ravenne Bernardo Bembo (it). Le tombeau a la forme d'un petit temple d'architecture néoclassique à plan carré, couronné d'une petite coupole. Sa façade comporte une porte surmontée du blason de l'archevêque le Cardinal Gonzaga, et sur l'architrave se trouve l'inscription en langue latine : 
 « Dantis poetae sepulcrum ».
@@ -551,7 +565,9 @@
           <t>Histoire de la dépouille de Dante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jour suivant la mort de Dante, son corps fut déposé dans le sarcophage actuel qui, à l'époque, était installé le long de la route, à l'extérieur du cloître de Braccioforte.
 À la fin du XVe siècle, le podestat de Ravenne, Bernardo Bembo, déplaça le sarcophage sur le côté ouest du cloître.
@@ -562,7 +578,7 @@
 Quand, en 1810, le couvent fut supprimé par ordre de Napoléon Bonaparte, les frères cachèrent de nouveau la cassette avec les ossements dans une porte murée de l'oratoire du cloître de Braccioforte. Ceux-ci furent découverts fortuitement, en 1865, pendant les travaux de restauration entrepris à l'occasion du VIe centenaire de la naissance de Dante.
 Après avoir été exposés au public, les ossements furent remis, à l'intérieur de deux cassettes, dans le sarcophage original, dans le petit mausolée. Ils en furent retirés le 23 mars 1944 afin d'éviter leur destruction au cours des bombardements alliés sur Ravenne et replacés le 19 décembre 1945. Pendant cette période, ils furent enterrées à proximité du mausolée sous un tumulus couvert par la végétation, aujourd'hui repéré par une stèle commémorative.
 Dans l'espoir que les reliques lui soient rendues, la commune de Florence fit réaliser en 1829 un grand cénotaphe dans la Basilique Santa Croce. Celui-ci représente le poète assis et pensif soulevé « en gloire » par l'Italie, tandis que la Poésie pleure, prostrée sur le sarcophage.
-La ville de Florence, qui n'a toujours pas obtenu satisfaction, ne peut que fournir chaque année l'huile nécessaire à alimenter la lampe du tombeau[2].
+La ville de Florence, qui n'a toujours pas obtenu satisfaction, ne peut que fournir chaque année l'huile nécessaire à alimenter la lampe du tombeau.
 			Le bas-relief et son encadrement marmoréen.
 			La lampe à huile.
 			La réserve d'huile offerte par Florence.
